--- a/3/3/1/En UF 2002 a 2021 - Mensual.xlsx
+++ b/3/3/1/En UF 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>Serie</t>
   </si>
@@ -716,6 +716,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G228"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5818,6 +5821,9 @@
       <c r="A225" t="s">
         <v>230</v>
       </c>
+      <c r="B225">
+        <v>-2.63</v>
+      </c>
       <c r="C225">
         <v>-2.12</v>
       </c>
@@ -5892,6 +5898,26 @@
       </c>
       <c r="G228">
         <v>2.35</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>234</v>
+      </c>
+      <c r="C229">
+        <v>-1.2</v>
+      </c>
+      <c r="D229">
+        <v>0.64</v>
+      </c>
+      <c r="E229">
+        <v>1.57</v>
+      </c>
+      <c r="F229">
+        <v>2.26</v>
+      </c>
+      <c r="G229">
+        <v>2.36</v>
       </c>
     </row>
   </sheetData>

--- a/3/3/1/En UF 2002 a 2021 - Mensual.xlsx
+++ b/3/3/1/En UF 2002 a 2021 - Mensual.xlsx
@@ -5904,6 +5904,9 @@
       <c r="A229" t="s">
         <v>234</v>
       </c>
+      <c r="B229">
+        <v>-1.75</v>
+      </c>
       <c r="C229">
         <v>-1.2</v>
       </c>

--- a/3/3/1/En UF 2002 a 2021 - Mensual.xlsx
+++ b/3/3/1/En UF 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <si>
     <t>Serie</t>
   </si>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5923,6 +5926,26 @@
         <v>2.36</v>
       </c>
     </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>235</v>
+      </c>
+      <c r="C230">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="D230">
+        <v>1.32</v>
+      </c>
+      <c r="E230">
+        <v>2</v>
+      </c>
+      <c r="F230">
+        <v>2.5</v>
+      </c>
+      <c r="G230">
+        <v>2.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En UF 2002 a 2021 - Mensual.xlsx
+++ b/3/3/1/En UF 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
     <t>Serie</t>
   </si>
@@ -722,6 +722,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G230"/>
+  <dimension ref="A1:G231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5946,6 +5949,20 @@
         <v>2.63</v>
       </c>
     </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>236</v>
+      </c>
+      <c r="C231">
+        <v>0.32</v>
+      </c>
+      <c r="D231">
+        <v>2.42</v>
+      </c>
+      <c r="E231">
+        <v>2.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En UF 2002 a 2021 - Mensual.xlsx
+++ b/3/3/1/En UF 2002 a 2021 - Mensual.xlsx
@@ -5962,6 +5962,12 @@
       <c r="E231">
         <v>2.95</v>
       </c>
+      <c r="F231">
+        <v>3.19</v>
+      </c>
+      <c r="G231">
+        <v>3.39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
